--- a/biology/Zoologie/Eupithecia/Eupithecia.xlsx
+++ b/biology/Zoologie/Eupithecia/Eupithecia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupithecia est un genre de lépidoptères (papillons) de la famille des Geometridae.
 Ses représentants sont appelés en français des Eupithécies. 
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des espèces de genres voisins, comme Chloroclystis ou Pasiphila portent aussi le nom vernaculaire français d'eupithécie, tandis que l'espèce Gymnoscelis rufifasciata s'appelle fausse eupithécie.
 </t>
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles de certaines espèces hawaïennes d'Eupithécies se nourrissent d'autres insectes (E.orichloris, E.staurophragma, E.scoriodes). Elles imitent des brindilles et attrapent les insectes qui passent à leur portée.
 </t>
@@ -576,7 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia abbreviata
 Eupithecia abdera
 Eupithecia abietaria
@@ -711,7 +733,43 @@
 Eupithecia atuni
 Eupithecia avara
 Eupithecia aysenae
-B
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia balintzsolti
 Eupithecia balteata
 Eupithecia bandurriasae
@@ -761,7 +819,43 @@
 Eupithecia burmata
 Eupithecia burselongata
 Eupithecia buysseata
-C
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia cabrasae
 Eupithecia cabreria
 Eupithecia caburgua
@@ -882,7 +976,43 @@
 Eupithecia cupressata
 Eupithecia curacautinae
 Eupithecia curvifascia
-D
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia daemionata
 Eupithecia dalhousiensis
 Eupithecia damnosa
@@ -945,7 +1075,43 @@
 Eupithecia dura
 Eupithecia dustica
 Eupithecia dzhirgatalensis
-E
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia ebriosa
 Eupithecia ecplyta
 Eupithecia edaphopteryx
@@ -997,7 +1163,43 @@
 Eupithecia extremata
 Eupithecia extrinseca
 Eupithecia exudata
-F
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia falkenbergi
 Eupithecia falkneri
 Eupithecia famularia
@@ -1048,7 +1250,43 @@
 Eupithecia fuscicostata
 Eupithecia fuscopunctata
 Eupithecia fuscorufa
-G
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia galapagosata
 Eupithecia galepsa
 Eupithecia garrula
@@ -1077,7 +1315,43 @@
 Eupithecia guamanica
 Eupithecia guayacanae
 Eupithecia gueneata
-H
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia habermani
 Eupithecia hainanensis
 Eupithecia halosydne
@@ -1124,7 +1398,43 @@
 Eupithecia hydrargyrea
 Eupithecia hypophasma
 Eupithecia hysterica
-I
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia icterata
 Eupithecia idaeoides
 Eupithecia idalia
@@ -1197,7 +1507,43 @@
 Eupithecia isopsaloides
 Eupithecia isotenes
 Eupithecia iterata
-J-K
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>J-K</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia jacksoni
 Eupithecia jamesi
 Eupithecia jeanneli
@@ -1243,7 +1589,43 @@
 Eupithecia kurilensis
 Eupithecia kuroshio
 Eupithecia kurtia
-L
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia laboriosa
 Eupithecia lachaumei
 Eupithecia lachrymosa
@@ -1312,7 +1694,43 @@
 Eupithecia lusoria
 Eupithecia luteonigra
 Eupithecia lvovskyi
-M
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia macdunnoughi
 Eupithecia macfarlandi
 Eupithecia macreus
@@ -1408,7 +1826,43 @@
 Eupithecia myoma
 Eupithecia mystiata
 Eupithecia mystica
-N
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia nabagulensis
 Eupithecia nabokovi
 Eupithecia nachadira
@@ -1459,7 +1913,43 @@
 Eupithecia nublae
 Eupithecia nuceistrigata
 Eupithecia nusret
-O
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia obliquiplaga
 Eupithecia oblongipennis
 Eupithecia obscurata
@@ -1499,7 +1989,43 @@
 Eupithecia ovalle
 Eupithecia owenata
 Eupithecia oxycedrata
-P
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia pactia
 Eupithecia pallidicosta
 Eupithecia pallidistriga
@@ -1626,7 +2152,43 @@
 Eupithecia pygmaeata
 Eupithecia pyreneata
 Eupithecia pyricoetes
-Q-R
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Q-R</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia qinlingata
 Eupithecia quadripunctata
 Eupithecia quakerata
@@ -1690,7 +2252,43 @@
 Eupithecia russeola
 Eupithecia russula
 Eupithecia ryukyuensis
-S
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia sabulosata
 Eupithecia sachalini
 Eupithecia sacrimontis
@@ -1853,7 +2451,43 @@
 Eupithecia syriacata
 Eupithecia szaboi
 Eupithecia szelenyica
-T
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia tabacata
 Eupithecia tabestana
 Eupithecia taiwana
@@ -1924,7 +2558,43 @@
 Eupithecia turpicula
 Eupithecia turpis
 Eupithecia tutsiana
-U-V
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>U-V</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia uighurica
 Eupithecia uinta
 Eupithecia ultimaria
@@ -1981,7 +2651,43 @@
 Eupithecia vivida
 Eupithecia vojnitsi
 Eupithecia vulgata
-W-Z
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Eupithecia</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupithecia</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>W-Z</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupithecia wangi
 Eupithecia wardi
 Eupithecia weigti
